--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['41', '53']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -660,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +910,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1095,7 +1101,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1286,7 +1292,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1668,7 +1674,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1758,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1946,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2050,7 +2056,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2241,7 +2247,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2328,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2432,7 +2438,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2623,7 +2629,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2713,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2814,7 +2820,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -2901,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT12">
         <v>3</v>
@@ -3005,7 +3011,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3147,6 +3153,579 @@
       </c>
       <c r="BK13">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5139498</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44996.08333333334</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>3.3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>3.37</v>
+      </c>
+      <c r="W14">
+        <v>1.44</v>
+      </c>
+      <c r="X14">
+        <v>2.62</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>1.36</v>
+      </c>
+      <c r="AA14">
+        <v>7.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.07</v>
+      </c>
+      <c r="AC14">
+        <v>2.86</v>
+      </c>
+      <c r="AD14">
+        <v>3.22</v>
+      </c>
+      <c r="AE14">
+        <v>2.64</v>
+      </c>
+      <c r="AF14">
+        <v>1.07</v>
+      </c>
+      <c r="AG14">
+        <v>7.5</v>
+      </c>
+      <c r="AH14">
+        <v>1.36</v>
+      </c>
+      <c r="AI14">
+        <v>3</v>
+      </c>
+      <c r="AJ14">
+        <v>2.12</v>
+      </c>
+      <c r="AK14">
+        <v>1.73</v>
+      </c>
+      <c r="AL14">
+        <v>1.8</v>
+      </c>
+      <c r="AM14">
+        <v>1.91</v>
+      </c>
+      <c r="AN14">
+        <v>1.5</v>
+      </c>
+      <c r="AO14">
+        <v>1.37</v>
+      </c>
+      <c r="AP14">
+        <v>1.43</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1.5</v>
+      </c>
+      <c r="AT14">
+        <v>0.5</v>
+      </c>
+      <c r="AU14">
+        <v>0.3</v>
+      </c>
+      <c r="AV14">
+        <v>1.91</v>
+      </c>
+      <c r="AW14">
+        <v>2.21</v>
+      </c>
+      <c r="AX14">
+        <v>2.33</v>
+      </c>
+      <c r="AY14">
+        <v>7.5</v>
+      </c>
+      <c r="AZ14">
+        <v>1.85</v>
+      </c>
+      <c r="BA14">
+        <v>1.48</v>
+      </c>
+      <c r="BB14">
+        <v>1.88</v>
+      </c>
+      <c r="BC14">
+        <v>2.46</v>
+      </c>
+      <c r="BD14">
+        <v>3.42</v>
+      </c>
+      <c r="BE14">
+        <v>5</v>
+      </c>
+      <c r="BF14">
+        <v>5</v>
+      </c>
+      <c r="BG14">
+        <v>6</v>
+      </c>
+      <c r="BH14">
+        <v>4</v>
+      </c>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14">
+        <v>9</v>
+      </c>
+      <c r="BK14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5139499</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44996.08333333334</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>2.1</v>
+      </c>
+      <c r="V15">
+        <v>2.55</v>
+      </c>
+      <c r="W15">
+        <v>1.41</v>
+      </c>
+      <c r="X15">
+        <v>2.7</v>
+      </c>
+      <c r="Y15">
+        <v>3.25</v>
+      </c>
+      <c r="Z15">
+        <v>1.33</v>
+      </c>
+      <c r="AA15">
+        <v>7.5</v>
+      </c>
+      <c r="AB15">
+        <v>1.07</v>
+      </c>
+      <c r="AC15">
+        <v>3.68</v>
+      </c>
+      <c r="AD15">
+        <v>3.61</v>
+      </c>
+      <c r="AE15">
+        <v>2.03</v>
+      </c>
+      <c r="AF15">
+        <v>1.07</v>
+      </c>
+      <c r="AG15">
+        <v>7.5</v>
+      </c>
+      <c r="AH15">
+        <v>1.33</v>
+      </c>
+      <c r="AI15">
+        <v>3.1</v>
+      </c>
+      <c r="AJ15">
+        <v>1.97</v>
+      </c>
+      <c r="AK15">
+        <v>1.88</v>
+      </c>
+      <c r="AL15">
+        <v>1.83</v>
+      </c>
+      <c r="AM15">
+        <v>1.9</v>
+      </c>
+      <c r="AN15">
+        <v>1.72</v>
+      </c>
+      <c r="AO15">
+        <v>1.25</v>
+      </c>
+      <c r="AP15">
+        <v>1.2</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>3</v>
+      </c>
+      <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <v>2</v>
+      </c>
+      <c r="AU15">
+        <v>1.61</v>
+      </c>
+      <c r="AV15">
+        <v>0.42</v>
+      </c>
+      <c r="AW15">
+        <v>2.03</v>
+      </c>
+      <c r="AX15">
+        <v>2.78</v>
+      </c>
+      <c r="AY15">
+        <v>7.5</v>
+      </c>
+      <c r="AZ15">
+        <v>1.64</v>
+      </c>
+      <c r="BA15">
+        <v>1.48</v>
+      </c>
+      <c r="BB15">
+        <v>1.88</v>
+      </c>
+      <c r="BC15">
+        <v>2.46</v>
+      </c>
+      <c r="BD15">
+        <v>3.42</v>
+      </c>
+      <c r="BE15">
+        <v>5</v>
+      </c>
+      <c r="BF15">
+        <v>6</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BI15">
+        <v>2</v>
+      </c>
+      <c r="BJ15">
+        <v>9</v>
+      </c>
+      <c r="BK15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5139500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44996.1875</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>2.05</v>
+      </c>
+      <c r="V16">
+        <v>3.4</v>
+      </c>
+      <c r="W16">
+        <v>1.45</v>
+      </c>
+      <c r="X16">
+        <v>2.6</v>
+      </c>
+      <c r="Y16">
+        <v>3.25</v>
+      </c>
+      <c r="Z16">
+        <v>1.33</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>1.06</v>
+      </c>
+      <c r="AC16">
+        <v>2.46</v>
+      </c>
+      <c r="AD16">
+        <v>3.26</v>
+      </c>
+      <c r="AE16">
+        <v>3.08</v>
+      </c>
+      <c r="AF16">
+        <v>1.07</v>
+      </c>
+      <c r="AG16">
+        <v>7.5</v>
+      </c>
+      <c r="AH16">
+        <v>1.33</v>
+      </c>
+      <c r="AI16">
+        <v>3.1</v>
+      </c>
+      <c r="AJ16">
+        <v>1.96</v>
+      </c>
+      <c r="AK16">
+        <v>1.75</v>
+      </c>
+      <c r="AL16">
+        <v>1.8</v>
+      </c>
+      <c r="AM16">
+        <v>1.95</v>
+      </c>
+      <c r="AN16">
+        <v>1.35</v>
+      </c>
+      <c r="AO16">
+        <v>1.28</v>
+      </c>
+      <c r="AP16">
+        <v>1.53</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0.5</v>
+      </c>
+      <c r="AT16">
+        <v>0.5</v>
+      </c>
+      <c r="AU16">
+        <v>1.2</v>
+      </c>
+      <c r="AV16">
+        <v>0.85</v>
+      </c>
+      <c r="AW16">
+        <v>2.05</v>
+      </c>
+      <c r="AX16">
+        <v>1.85</v>
+      </c>
+      <c r="AY16">
+        <v>7.5</v>
+      </c>
+      <c r="AZ16">
+        <v>2.33</v>
+      </c>
+      <c r="BA16">
+        <v>1.48</v>
+      </c>
+      <c r="BB16">
+        <v>1.93</v>
+      </c>
+      <c r="BC16">
+        <v>2.46</v>
+      </c>
+      <c r="BD16">
+        <v>3.42</v>
+      </c>
+      <c r="BE16">
+        <v>5</v>
+      </c>
+      <c r="BF16">
+        <v>2</v>
+      </c>
+      <c r="BG16">
+        <v>7</v>
+      </c>
+      <c r="BH16">
+        <v>6</v>
+      </c>
+      <c r="BI16">
+        <v>5</v>
+      </c>
+      <c r="BJ16">
+        <v>8</v>
+      </c>
+      <c r="BK16">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -280,6 +280,15 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['74', '76']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
   </si>
   <si>
     <t>['59', '90+1']</t>
+  </si>
+  <si>
+    <t>['55', '88']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +922,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1101,7 +1113,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1292,7 +1304,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1382,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1674,7 +1686,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2056,7 +2068,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2143,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2247,7 +2259,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2438,7 +2450,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2528,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2629,7 +2641,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2716,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -2820,7 +2832,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3011,7 +3023,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3584,7 +3596,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3726,6 +3738,579 @@
       </c>
       <c r="BK16">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5139501</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44997.08333333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>3.7</v>
+      </c>
+      <c r="U17">
+        <v>2.05</v>
+      </c>
+      <c r="V17">
+        <v>2.7</v>
+      </c>
+      <c r="W17">
+        <v>1.42</v>
+      </c>
+      <c r="X17">
+        <v>2.65</v>
+      </c>
+      <c r="Y17">
+        <v>2.95</v>
+      </c>
+      <c r="Z17">
+        <v>1.35</v>
+      </c>
+      <c r="AA17">
+        <v>7.75</v>
+      </c>
+      <c r="AB17">
+        <v>1.07</v>
+      </c>
+      <c r="AC17">
+        <v>3.4</v>
+      </c>
+      <c r="AD17">
+        <v>3.37</v>
+      </c>
+      <c r="AE17">
+        <v>2.13</v>
+      </c>
+      <c r="AF17">
+        <v>1.05</v>
+      </c>
+      <c r="AG17">
+        <v>9.25</v>
+      </c>
+      <c r="AH17">
+        <v>1.3</v>
+      </c>
+      <c r="AI17">
+        <v>3.2</v>
+      </c>
+      <c r="AJ17">
+        <v>1.92</v>
+      </c>
+      <c r="AK17">
+        <v>1.86</v>
+      </c>
+      <c r="AL17">
+        <v>1.77</v>
+      </c>
+      <c r="AM17">
+        <v>1.9</v>
+      </c>
+      <c r="AN17">
+        <v>1.68</v>
+      </c>
+      <c r="AO17">
+        <v>1.29</v>
+      </c>
+      <c r="AP17">
+        <v>1.32</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>3</v>
+      </c>
+      <c r="AS17">
+        <v>1.5</v>
+      </c>
+      <c r="AT17">
+        <v>3</v>
+      </c>
+      <c r="AU17">
+        <v>1.95</v>
+      </c>
+      <c r="AV17">
+        <v>1.19</v>
+      </c>
+      <c r="AW17">
+        <v>3.14</v>
+      </c>
+      <c r="AX17">
+        <v>2.15</v>
+      </c>
+      <c r="AY17">
+        <v>7.1</v>
+      </c>
+      <c r="AZ17">
+        <v>2.05</v>
+      </c>
+      <c r="BA17">
+        <v>1.48</v>
+      </c>
+      <c r="BB17">
+        <v>1.87</v>
+      </c>
+      <c r="BC17">
+        <v>2.46</v>
+      </c>
+      <c r="BD17">
+        <v>3.42</v>
+      </c>
+      <c r="BE17">
+        <v>5</v>
+      </c>
+      <c r="BF17">
+        <v>3</v>
+      </c>
+      <c r="BG17">
+        <v>4</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
+      </c>
+      <c r="BJ17">
+        <v>3</v>
+      </c>
+      <c r="BK17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5139502</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44997.1875</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>2.38</v>
+      </c>
+      <c r="U18">
+        <v>2.05</v>
+      </c>
+      <c r="V18">
+        <v>5.25</v>
+      </c>
+      <c r="W18">
+        <v>1.48</v>
+      </c>
+      <c r="X18">
+        <v>2.5</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>1.33</v>
+      </c>
+      <c r="AA18">
+        <v>7.5</v>
+      </c>
+      <c r="AB18">
+        <v>1.06</v>
+      </c>
+      <c r="AC18">
+        <v>1.62</v>
+      </c>
+      <c r="AD18">
+        <v>3.3</v>
+      </c>
+      <c r="AE18">
+        <v>4.8</v>
+      </c>
+      <c r="AF18">
+        <v>1.05</v>
+      </c>
+      <c r="AG18">
+        <v>8</v>
+      </c>
+      <c r="AH18">
+        <v>1.33</v>
+      </c>
+      <c r="AI18">
+        <v>3</v>
+      </c>
+      <c r="AJ18">
+        <v>2.08</v>
+      </c>
+      <c r="AK18">
+        <v>1.66</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>1.73</v>
+      </c>
+      <c r="AN18">
+        <v>1.17</v>
+      </c>
+      <c r="AO18">
+        <v>1.29</v>
+      </c>
+      <c r="AP18">
+        <v>2.15</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>3</v>
+      </c>
+      <c r="AS18">
+        <v>2</v>
+      </c>
+      <c r="AT18">
+        <v>1.5</v>
+      </c>
+      <c r="AU18">
+        <v>1.34</v>
+      </c>
+      <c r="AV18">
+        <v>1.45</v>
+      </c>
+      <c r="AW18">
+        <v>2.79</v>
+      </c>
+      <c r="AX18">
+        <v>1.68</v>
+      </c>
+      <c r="AY18">
+        <v>7.8</v>
+      </c>
+      <c r="AZ18">
+        <v>2.77</v>
+      </c>
+      <c r="BA18">
+        <v>1.48</v>
+      </c>
+      <c r="BB18">
+        <v>1.87</v>
+      </c>
+      <c r="BC18">
+        <v>2.44</v>
+      </c>
+      <c r="BD18">
+        <v>3.34</v>
+      </c>
+      <c r="BE18">
+        <v>4.8</v>
+      </c>
+      <c r="BF18">
+        <v>7</v>
+      </c>
+      <c r="BG18">
+        <v>3</v>
+      </c>
+      <c r="BH18">
+        <v>4</v>
+      </c>
+      <c r="BI18">
+        <v>2</v>
+      </c>
+      <c r="BJ18">
+        <v>11</v>
+      </c>
+      <c r="BK18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5139503</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44997.1875</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
+      </c>
+      <c r="T19">
+        <v>3.3</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>3.1</v>
+      </c>
+      <c r="W19">
+        <v>1.46</v>
+      </c>
+      <c r="X19">
+        <v>2.55</v>
+      </c>
+      <c r="Y19">
+        <v>3.1</v>
+      </c>
+      <c r="Z19">
+        <v>1.31</v>
+      </c>
+      <c r="AA19">
+        <v>8.75</v>
+      </c>
+      <c r="AB19">
+        <v>1.06</v>
+      </c>
+      <c r="AC19">
+        <v>2.86</v>
+      </c>
+      <c r="AD19">
+        <v>3.15</v>
+      </c>
+      <c r="AE19">
+        <v>2.56</v>
+      </c>
+      <c r="AF19">
+        <v>1.04</v>
+      </c>
+      <c r="AG19">
+        <v>8</v>
+      </c>
+      <c r="AH19">
+        <v>1.3</v>
+      </c>
+      <c r="AI19">
+        <v>3.2</v>
+      </c>
+      <c r="AJ19">
+        <v>2.05</v>
+      </c>
+      <c r="AK19">
+        <v>1.7</v>
+      </c>
+      <c r="AL19">
+        <v>1.8</v>
+      </c>
+      <c r="AM19">
+        <v>1.87</v>
+      </c>
+      <c r="AN19">
+        <v>1.52</v>
+      </c>
+      <c r="AO19">
+        <v>1.3</v>
+      </c>
+      <c r="AP19">
+        <v>1.43</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <v>0.5</v>
+      </c>
+      <c r="AU19">
+        <v>2.72</v>
+      </c>
+      <c r="AV19">
+        <v>1.3</v>
+      </c>
+      <c r="AW19">
+        <v>4.02</v>
+      </c>
+      <c r="AX19">
+        <v>2.24</v>
+      </c>
+      <c r="AY19">
+        <v>7.2</v>
+      </c>
+      <c r="AZ19">
+        <v>1.97</v>
+      </c>
+      <c r="BA19">
+        <v>1.48</v>
+      </c>
+      <c r="BB19">
+        <v>1.87</v>
+      </c>
+      <c r="BC19">
+        <v>2.46</v>
+      </c>
+      <c r="BD19">
+        <v>3.42</v>
+      </c>
+      <c r="BE19">
+        <v>5</v>
+      </c>
+      <c r="BF19">
+        <v>7</v>
+      </c>
+      <c r="BG19">
+        <v>4</v>
+      </c>
+      <c r="BH19">
+        <v>5</v>
+      </c>
+      <c r="BI19">
+        <v>5</v>
+      </c>
+      <c r="BJ19">
+        <v>12</v>
+      </c>
+      <c r="BK19">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -4406,6 +4406,615 @@
       </c>
       <c r="BK19" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5139504</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45003.08333333334</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5139505</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45003.08333333334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['9', '20', '50', '69', '72']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5139506</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45003.1875</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['67', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU20" t="n">
         <v>1.91</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>2.03</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>0.91</v>
@@ -5624,6 +5624,1224 @@
       </c>
       <c r="BK25" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5139510</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45017.08333333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['58', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5139511</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45017.1875</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>13</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5139512</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45017.1875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['5', '36']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5139513</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45017.29166666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['15', '21', '89']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['25', '51']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>11</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5139514</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['7', '18', '29']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5139515</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45018.1875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
@@ -4151,7 +4151,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.34</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT20" t="n">
         <v>0.67</v>
@@ -5978,7 +5978,7 @@
         <v>1.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>2.23</v>
@@ -6842,6 +6842,615 @@
       </c>
       <c r="BK31" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5139516</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45024.08333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['32', '34']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>11</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5139517</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45024.1875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['12', '33', '41']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5139518</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45024.29166666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['48', '58']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>2.33</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
         <v>0.33</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>2.72</v>
@@ -5369,7 +5369,7 @@
         <v>0.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5772,7 +5772,7 @@
         <v>2</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT26" t="n">
         <v>2.33</v>
@@ -7035,16 +7035,16 @@
         <v>5</v>
       </c>
       <c r="BH32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK32" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -7438,7 +7438,7 @@
         <v>6</v>
       </c>
       <c r="BG34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH34" t="n">
         <v>4</v>
@@ -7450,7 +7450,616 @@
         <v>10</v>
       </c>
       <c r="BK34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5139521</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45025.125</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
         <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['56', '66', '70', '81', '88']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['5', '39', '61']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5139519</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45025.1875</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['58', '89']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5139520</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45025.29166666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -7921,13 +7921,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T37" t="n">
         <v>3.6</v>
@@ -8044,22 +8044,22 @@
         <v>4.85</v>
       </c>
       <c r="BF37" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG37" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH37" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI37" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK37" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT9" t="n">
         <v>2.33</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
         <v>2.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU17" t="n">
         <v>1.95</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.34</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU19" t="n">
         <v>2.72</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.67</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -4963,7 +4963,7 @@
         <v>0.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>2.03</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6587,7 +6587,7 @@
         <v>0.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.82</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT31" t="n">
         <v>0.67</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>1.35</v>
@@ -8005,10 +8005,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8060,6 +8060,1224 @@
       </c>
       <c r="BK37" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5139522</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45031.08333333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['8', '80']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['22', '50', '62']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5139523</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45031.1875</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5139524</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45031.29166666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>9</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>12</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5139525</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['22', '85']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>11</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5139526</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45032.1875</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['10', '45+2']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>9</v>
+      </c>
+      <c r="S42" t="n">
+        <v>12</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5139527</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45032.29166666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['64', '79', '82']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['19', '44', '60', '87']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South Korea K League 1_2023.xlsx
@@ -9139,13 +9139,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R43" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T43" t="n">
         <v>3</v>
@@ -9262,22 +9262,22 @@
         <v>5.1</v>
       </c>
       <c r="BF43" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG43" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH43" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI43" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ43" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK43" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
